--- a/Data/score.xlsx
+++ b/Data/score.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B973264-FF01-4BED-85DB-2EA9D608B68C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC24B8E1-C460-4971-89F2-E57D6236B6F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>e1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>{"H8":0.1,"H9":0.5,"H10":0.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,88 +414,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBC9656-9ABA-4334-911C-8FB51D6FDFAD}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -506,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C56F538-8133-46FB-A9C4-8FA16B5B32E9}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -903,7 +937,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:I16" si="0">C1+C$12+C$13</f>
+        <f t="shared" ref="C15:I15" si="0">C1+C$12+C$13</f>
         <v>0.85</v>
       </c>
       <c r="D15">

--- a/Data/score.xlsx
+++ b/Data/score.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC24B8E1-C460-4971-89F2-E57D6236B6F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DD545E-3B42-40F4-BC0F-0B2EE0D7407D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>e1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,43 +52,123 @@
     <t>e9</t>
   </si>
   <si>
-    <t>I12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"H3":0.4,"H4":0.3,"H5":0.2,"H":0.1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"H9":0.2,"H10":0.7,"H":0.1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"H3":0.3,"H4":0.5,"H5":0.2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"H3":0.4,"H4":0.2,"H5":0.2,"H7":0.1,"H":0.1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"H7":0.2,"H8":0.5,"H9":0.1,"H":0.2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"H6":0.1,"H7":0.3,"H8":0.1,"H9":0.3,"H":0.2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"H8":0.3,"H9":0.4,"H10":0.1,"H":0.2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"H8":0.1,"H9":0.5,"H10":0.4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I23</t>
+    <t>I45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H7":0.3,"H8":0.6,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H4":0.2,"H5":0.4,"H6":0.2,"H7":0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H5":0.3,"H7":0.3,"H8":0.3,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H6":0.5,"H7":0.4,"H8":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H7":0.3,"H8":0.6,"H9":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H5":0.1,"H7":0.3,"H8":0.6}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H4":0.4,"H5":0.4,"H6":0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H4":0.4,"H5":0.1,"H6":0.2,"H7":0.2,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H7":0.5,"H8":0.3,"H9":0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H3":0.1,"H4":0.3,"H5":0.3,"H6":0.2,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H5":0.3,"H7":0.5,"H8":0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H5":0.3,"H6":0.1,"H7":0.3,"H8":0.2,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H5":0.1,"H6":0.4,"H7":0.2,"H8":0.2,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H3":0.2,"H4":0.3,"H5":0.2,"H7":0.3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H4":0.3,"H5":0.3,"H6":0.2,"H":0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H2":0.1,"H3":0.3,"H5":0.1,"H6":0.2,"H7":0.1,"H":0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H3":0.3,"H5":0.4,"H6":0.1,"H8":0.1,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H5":0.1,"H6":0.2,"H7":0.1,"H8":0.4,"H9":0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H7":0.4,"H9":0.4,"H10":0.1,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H7":0.1,"H8":0.4,"H9":0.3,"H10":0.1,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H2":0.1,"H3":0.4,"H4":0.2,"H5":0.3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H4":0.3,"H5":0.2,"H6":0.1,"H7":0.3,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H4":0.5,"H6":0.1,"H7":0.1,"H8":0.1,"H":0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H4":0.2,"H5":0.2,"H6":0.1,"H7":0.1,"H8":0.1,"H9":0.1,"H":0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H4":0.2,"H5":0.4,"H6":0.1,"H7":0.2,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H4":0.3,"H5":0.3,"H6":0.1,"H7":0.2,"H":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"H9":0.7,"H10":0.1,"H11":0.1,"H":0.1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,67 +494,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBC9656-9ABA-4334-911C-8FB51D6FDFAD}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -482,10 +582,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -493,10 +596,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -504,10 +610,13 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -515,18 +624,24 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
